--- a/biology/Microbiologie/Vincent_Calvez/Vincent_Calvez.xlsx
+++ b/biology/Microbiologie/Vincent_Calvez/Vincent_Calvez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincent Calvez, né en 1981 à Saint-Malo en France, est un mathématicien. Directeur de recherche à l'Institut Camille Jordan, ses recherches portent notamment sur l'analyse d'un modèle mathématique décrivant le déplacement de bactéries.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Calvez naît en 1981[1].
-Ancien étudiant au lycée de Kerichen Brest, Vincent Calvez intègre à l'issue de sa classe préparatoire MPSI/MP* l'École normale supérieure de la rue d'Ulm[2].
-Il obtient son agrégation 2005 puis sa thèse à Paris6/ENS en 2007 sous la direction de Benoît Perthame. Recruté comme chargé de recherche au CNRS à l’Unité de mathématiques pures et appliquées (UMPA) en 2008, il devient membre de l’équipe Inria Modélisation numérique en médecine (NUMED) en 2009[3]. Il soutient son habilitation à diriger les recherches en 2015 et est nommé directeur de recherche en 2016[4]. De 2015 à 2020, il mène le "Mesoscopic models for propagation in biology" financé par un ERC starting grant.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Calvez naît en 1981.
+Ancien étudiant au lycée de Kerichen Brest, Vincent Calvez intègre à l'issue de sa classe préparatoire MPSI/MP* l'École normale supérieure de la rue d'Ulm.
+Il obtient son agrégation 2005 puis sa thèse à Paris6/ENS en 2007 sous la direction de Benoît Perthame. Recruté comme chargé de recherche au CNRS à l’Unité de mathématiques pures et appliquées (UMPA) en 2008, il devient membre de l’équipe Inria Modélisation numérique en médecine (NUMED) en 2009. Il soutient son habilitation à diriger les recherches en 2015 et est nommé directeur de recherche en 2016. De 2015 à 2020, il mène le "Mesoscopic models for propagation in biology" financé par un ERC starting grant.
 Depuis 2014 il est éditeur associé du Journal of Mathematical Biology.
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2016 : Prix EMS[5].
-2014 : Médaille de bronze du CNRS[1].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2016 : Prix EMS.
+2014 : Médaille de bronze du CNRS.</t>
         </is>
       </c>
     </row>
